--- a/sc2002/src/main/resources/OfficerList.xlsx
+++ b/sc2002/src/main/resources/OfficerList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/hu0037ng_e_ntu_edu_sg/Documents/SC4079 - Final Year Project/SC2002/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Chan\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048D321184AB85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C16B74A7-F5B2-40A6-96FA-424B754D23FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDCE8B-9982-45E4-BFCC-7F67D0478EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8812" yWindow="4215" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>S6543210I</t>
   </si>
   <si>
-    <t>T1234567J</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -60,13 +57,13 @@
     <t>David</t>
   </si>
   <si>
-    <t>Married</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -387,12 +384,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,9 +406,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -420,15 +417,15 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -437,27 +434,27 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/src/main/resources/OfficerList.xlsx
+++ b/sc2002/src/main/resources/OfficerList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Chan\Documents\GitHub\SC2002\sc2002\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NTUWorkspace\Y1 Y2\Object Oriented Design &amp; Programming\project\sc2002\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDCE8B-9982-45E4-BFCC-7F67D0478EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217A02C-0F7F-4D72-AE12-75D13688BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="3735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40305" yWindow="8910" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,12 +384,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -423,7 +423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -440,7 +440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -448,7 +448,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
